--- a/Documentacao/Sprints TIS III-noite-2sem2023.xlsx
+++ b/Documentacao/Sprints TIS III-noite-2sem2023.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Sprint #1'!$B$10:$J$68</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Sprint #5'!$B$10:$J$59</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Sprint #5'!$B$10:$J$64</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'Sprint #6'!$B$10:$J$60</definedName>
   </definedNames>
   <calcPr/>
@@ -176,7 +176,7 @@
 Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B62">
+    <comment authorId="0" ref="B67">
       <text>
         <t xml:space="preserve">======
 ID#AAAAEJHs_Wg
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="170">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -944,28 +944,55 @@
     <t>SPRINT #5</t>
   </si>
   <si>
+    <t>Incrementar diagrama de caso de uso</t>
+  </si>
+  <si>
     <t>RF09, RF10, RF11</t>
+  </si>
+  <si>
+    <t>Incrementar diagrama de classes</t>
+  </si>
+  <si>
+    <t>Criar Caso de Uso Descritivo</t>
+  </si>
+  <si>
+    <t>RF08, RF11</t>
   </si>
   <si>
     <t>Criar Modelagem do banco de dados</t>
   </si>
   <si>
-    <t>Atualizar Interfaces das telas de Controle de Estoque, Controle de Receitas e Controle de Despesas (Figma)</t>
+    <t>Criar Interface das tela Gerar Relatório (Figma)</t>
   </si>
   <si>
-    <t xml:space="preserve">Atualizar Documento de Interface das telas de Controle de Estoque, Controle de Receitas e Controle de Despesas </t>
+    <t>Criar Documento de Interface da tela Gerar Relatório</t>
+  </si>
+  <si>
+    <t>Criar Documento de Interface do Relatório de Estoque</t>
+  </si>
+  <si>
+    <t>RF09</t>
+  </si>
+  <si>
+    <t>Criar Documento de Interface do Relatório de Receitas</t>
+  </si>
+  <si>
+    <t>RF10</t>
+  </si>
+  <si>
+    <t>Criar Documento de Interface do Relatório de Despesas</t>
+  </si>
+  <si>
+    <t>RF11</t>
   </si>
   <si>
     <t>[BACK] Criar lógica de geração de relatório</t>
   </si>
   <si>
-    <t>[FRONT] Adicionar botão Gerar Relatório nas telas Controle de Estoque, Controle de Receitas e Controle de Despesas</t>
+    <t>[FRONT] Implementar tela Gerar Relatório</t>
   </si>
   <si>
     <t>Planejamento Sprint #6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiago Vitor Pereira Saraiva </t>
   </si>
   <si>
     <r>
@@ -1419,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1679,6 +1706,9 @@
     <xf borderId="16" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1883,11 +1913,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="478899963"/>
-        <c:axId val="591792663"/>
+        <c:axId val="210772404"/>
+        <c:axId val="878495545"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="478899963"/>
+        <c:axId val="210772404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,10 +1969,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591792663"/>
+        <c:crossAx val="878495545"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591792663"/>
+        <c:axId val="878495545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478899963"/>
+        <c:crossAx val="210772404"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4006,11 +4036,11 @@
         <v>39</v>
       </c>
       <c r="H104" s="35">
-        <f>'Sprint #5'!H$60</f>
+        <f>'Sprint #5'!H$65</f>
         <v>0</v>
       </c>
       <c r="I104" s="35">
-        <f>'Sprint #5'!I$60</f>
+        <f>'Sprint #5'!I$65</f>
         <v>0</v>
       </c>
       <c r="J104" s="29"/>
@@ -4032,7 +4062,7 @@
         <v>40</v>
       </c>
       <c r="H105" s="35">
-        <f>'Sprint #5'!H$60</f>
+        <f>'Sprint #5'!H$65</f>
         <v>0</v>
       </c>
       <c r="I105" s="35">
@@ -23008,7 +23038,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" s="73">
-        <f t="shared" ref="K2:K14" si="1">K1+1</f>
+        <f t="shared" ref="K2:K11" si="1">K1+1</f>
         <v>45225</v>
       </c>
     </row>
@@ -23178,10 +23208,10 @@
         <v>45231.0</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>14</v>
@@ -23213,37 +23243,30 @@
     </row>
     <row r="12" ht="50.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="61">
+      <c r="B12" s="107">
         <v>2.0</v>
       </c>
       <c r="C12" s="81">
         <v>45231.0</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>12</v>
+      <c r="F12" s="82" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="86">
-        <v>0.0</v>
-      </c>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="69"/>
-      <c r="K12" s="73">
-        <f t="shared" si="1"/>
-        <v>45235</v>
-      </c>
-    </row>
-    <row r="13" ht="52.5" customHeight="1">
+      <c r="K12" s="73"/>
+    </row>
+    <row r="13" ht="50.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="61">
         <v>3.0</v>
@@ -23251,46 +23274,39 @@
       <c r="C13" s="81">
         <v>45231.0</v>
       </c>
-      <c r="D13" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>16</v>
+      <c r="D13" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="86">
-        <v>0.0</v>
-      </c>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="73">
-        <f t="shared" si="1"/>
-        <v>45236</v>
-      </c>
-    </row>
-    <row r="14" ht="51.0" customHeight="1">
+      <c r="K13" s="73"/>
+    </row>
+    <row r="14" ht="50.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="61">
+      <c r="B14" s="107">
         <v>4.0</v>
       </c>
       <c r="C14" s="81">
         <v>45231.0</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>8</v>
+        <v>150</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="83" t="s">
         <v>29</v>
@@ -23301,28 +23317,28 @@
       <c r="I14" s="86">
         <v>0.0</v>
       </c>
-      <c r="J14" s="107"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="73">
-        <f t="shared" si="1"/>
-        <v>45237</v>
-      </c>
-    </row>
-    <row r="15" ht="44.25" customHeight="1">
+        <f>K11+1</f>
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="15" ht="52.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="61">
         <v>5.0</v>
       </c>
       <c r="C15" s="81">
-        <v>45237.0</v>
+        <v>45231.0</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="82" t="s">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="G15" s="83" t="s">
         <v>29</v>
@@ -23333,25 +23349,28 @@
       <c r="I15" s="86">
         <v>0.0</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="73"/>
-    </row>
-    <row r="16" ht="46.5" customHeight="1">
+      <c r="J15" s="69"/>
+      <c r="K15" s="73">
+        <f t="shared" ref="K15:K16" si="2">K14+1</f>
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="16" ht="51.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="61">
+      <c r="B16" s="107">
         <v>6.0</v>
       </c>
       <c r="C16" s="81">
-        <v>45237.0</v>
+        <v>45231.0</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>14</v>
+        <v>150</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>8</v>
       </c>
       <c r="G16" s="83" t="s">
         <v>29</v>
@@ -23362,141 +23381,182 @@
       <c r="I16" s="86">
         <v>0.0</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="73"/>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
+      <c r="J16" s="108"/>
+      <c r="K16" s="73">
+        <f t="shared" si="2"/>
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="17" ht="44.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="61">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C17" s="81">
         <v>45237.0</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>155</v>
+      <c r="D17" s="82" t="s">
+        <v>157</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="G17" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="107"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="73"/>
     </row>
-    <row r="18" ht="37.5" customHeight="1">
+    <row r="18" ht="44.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="61">
-        <v>9.0</v>
-      </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="107"/>
+      <c r="B18" s="107">
+        <v>8.0</v>
+      </c>
+      <c r="C18" s="81">
+        <v>45237.0</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="73"/>
     </row>
-    <row r="19" ht="37.5" customHeight="1">
+    <row r="19" ht="44.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="81">
+        <v>45237.0</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="73"/>
+    </row>
+    <row r="20" ht="44.25" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="107">
         <v>10.0</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="73"/>
-    </row>
-    <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="61">
-        <v>11.0</v>
-      </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="C20" s="81">
+        <v>45237.0</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H20" s="86">
         <v>0.0</v>
       </c>
       <c r="I20" s="86">
         <v>0.0</v>
       </c>
-      <c r="J20" s="107"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="73"/>
     </row>
-    <row r="21" ht="37.5" customHeight="1">
+    <row r="21" ht="46.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="61">
-        <v>12.0</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+        <v>11.0</v>
+      </c>
+      <c r="C21" s="81">
+        <v>45237.0</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="86">
         <v>0.0</v>
       </c>
       <c r="I21" s="86">
         <v>0.0</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="73"/>
     </row>
     <row r="22" ht="37.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="61">
-        <v>13.0</v>
-      </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="B22" s="107">
+        <v>12.0</v>
+      </c>
+      <c r="C22" s="81">
+        <v>45237.0</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="86">
         <v>0.0</v>
       </c>
       <c r="I22" s="86">
         <v>0.0</v>
       </c>
-      <c r="J22" s="107"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="73"/>
     </row>
     <row r="23" ht="37.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="61">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C23" s="94"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
       <c r="H23" s="86">
@@ -23505,16 +23565,16 @@
       <c r="I23" s="86">
         <v>0.0</v>
       </c>
-      <c r="J23" s="107"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="73"/>
     </row>
     <row r="24" ht="37.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="61">
-        <v>15.0</v>
+      <c r="B24" s="107">
+        <v>14.0</v>
       </c>
       <c r="C24" s="94"/>
-      <c r="D24" s="69"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="69"/>
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
@@ -23524,16 +23584,16 @@
       <c r="I24" s="86">
         <v>0.0</v>
       </c>
-      <c r="J24" s="107"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="73"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="61">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C25" s="94"/>
-      <c r="D25" s="69"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
@@ -23543,13 +23603,13 @@
       <c r="I25" s="86">
         <v>0.0</v>
       </c>
-      <c r="J25" s="107"/>
+      <c r="J25" s="108"/>
       <c r="K25" s="73"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="61">
-        <v>17.0</v>
+      <c r="B26" s="107">
+        <v>16.0</v>
       </c>
       <c r="C26" s="94"/>
       <c r="D26" s="69"/>
@@ -23562,13 +23622,13 @@
       <c r="I26" s="86">
         <v>0.0</v>
       </c>
-      <c r="J26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="K26" s="73"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="61">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C27" s="94"/>
       <c r="D27" s="69"/>
@@ -23581,13 +23641,13 @@
       <c r="I27" s="86">
         <v>0.0</v>
       </c>
-      <c r="J27" s="107"/>
+      <c r="J27" s="108"/>
       <c r="K27" s="73"/>
     </row>
     <row r="28" ht="37.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="61">
-        <v>19.0</v>
+      <c r="B28" s="107">
+        <v>18.0</v>
       </c>
       <c r="C28" s="94"/>
       <c r="D28" s="69"/>
@@ -23600,12 +23660,13 @@
       <c r="I28" s="86">
         <v>0.0</v>
       </c>
-      <c r="J28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" ht="37.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="61">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C29" s="94"/>
       <c r="D29" s="69"/>
@@ -23618,12 +23679,13 @@
       <c r="I29" s="86">
         <v>0.0</v>
       </c>
-      <c r="J29" s="107"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="61">
-        <v>21.0</v>
+      <c r="B30" s="107">
+        <v>20.0</v>
       </c>
       <c r="C30" s="94"/>
       <c r="D30" s="69"/>
@@ -23636,12 +23698,13 @@
       <c r="I30" s="86">
         <v>0.0</v>
       </c>
-      <c r="J30" s="107"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="61">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C31" s="94"/>
       <c r="D31" s="69"/>
@@ -23654,12 +23717,13 @@
       <c r="I31" s="86">
         <v>0.0</v>
       </c>
-      <c r="J31" s="107"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" ht="37.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="61">
-        <v>23.0</v>
+      <c r="B32" s="107">
+        <v>22.0</v>
       </c>
       <c r="C32" s="94"/>
       <c r="D32" s="69"/>
@@ -23672,12 +23736,13 @@
       <c r="I32" s="86">
         <v>0.0</v>
       </c>
-      <c r="J32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" ht="37.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="61">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" s="94"/>
       <c r="D33" s="69"/>
@@ -23690,12 +23755,12 @@
       <c r="I33" s="86">
         <v>0.0</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="108"/>
     </row>
     <row r="34" ht="37.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="61">
-        <v>25.0</v>
+      <c r="B34" s="107">
+        <v>24.0</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="69"/>
@@ -23708,12 +23773,12 @@
       <c r="I34" s="86">
         <v>0.0</v>
       </c>
-      <c r="J34" s="85"/>
+      <c r="J34" s="108"/>
     </row>
     <row r="35" ht="37.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="61">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C35" s="94"/>
       <c r="D35" s="69"/>
@@ -23726,12 +23791,12 @@
       <c r="I35" s="86">
         <v>0.0</v>
       </c>
-      <c r="J35" s="85"/>
+      <c r="J35" s="108"/>
     </row>
     <row r="36" ht="37.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="61">
-        <v>27.0</v>
+      <c r="B36" s="107">
+        <v>26.0</v>
       </c>
       <c r="C36" s="94"/>
       <c r="D36" s="69"/>
@@ -23744,12 +23809,12 @@
       <c r="I36" s="86">
         <v>0.0</v>
       </c>
-      <c r="J36" s="85"/>
+      <c r="J36" s="108"/>
     </row>
     <row r="37" ht="37.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="61">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C37" s="94"/>
       <c r="D37" s="69"/>
@@ -23762,12 +23827,12 @@
       <c r="I37" s="86">
         <v>0.0</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" ht="37.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="61">
-        <v>29.0</v>
+      <c r="B38" s="107">
+        <v>28.0</v>
       </c>
       <c r="C38" s="94"/>
       <c r="D38" s="69"/>
@@ -23785,7 +23850,7 @@
     <row r="39" ht="37.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="61">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C39" s="94"/>
       <c r="D39" s="69"/>
@@ -23802,8 +23867,8 @@
     </row>
     <row r="40" ht="37.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="61">
-        <v>31.0</v>
+      <c r="B40" s="107">
+        <v>30.0</v>
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="69"/>
@@ -23821,7 +23886,7 @@
     <row r="41" ht="37.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="61">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C41" s="94"/>
       <c r="D41" s="69"/>
@@ -23838,8 +23903,8 @@
     </row>
     <row r="42" ht="37.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="61">
-        <v>33.0</v>
+      <c r="B42" s="107">
+        <v>32.0</v>
       </c>
       <c r="C42" s="94"/>
       <c r="D42" s="69"/>
@@ -23857,7 +23922,7 @@
     <row r="43" ht="37.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="61">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="69"/>
@@ -23874,8 +23939,8 @@
     </row>
     <row r="44" ht="37.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="61">
-        <v>35.0</v>
+      <c r="B44" s="107">
+        <v>34.0</v>
       </c>
       <c r="C44" s="94"/>
       <c r="D44" s="69"/>
@@ -23893,7 +23958,7 @@
     <row r="45" ht="37.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="61">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="C45" s="94"/>
       <c r="D45" s="69"/>
@@ -23910,8 +23975,8 @@
     </row>
     <row r="46" ht="37.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="61">
-        <v>37.0</v>
+      <c r="B46" s="107">
+        <v>36.0</v>
       </c>
       <c r="C46" s="94"/>
       <c r="D46" s="69"/>
@@ -23929,7 +23994,7 @@
     <row r="47" ht="37.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="61">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C47" s="94"/>
       <c r="D47" s="69"/>
@@ -23946,8 +24011,8 @@
     </row>
     <row r="48" ht="37.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="61">
-        <v>39.0</v>
+      <c r="B48" s="107">
+        <v>38.0</v>
       </c>
       <c r="C48" s="94"/>
       <c r="D48" s="69"/>
@@ -23965,7 +24030,7 @@
     <row r="49" ht="37.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="61">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="C49" s="94"/>
       <c r="D49" s="69"/>
@@ -23982,8 +24047,8 @@
     </row>
     <row r="50" ht="37.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="61">
-        <v>41.0</v>
+      <c r="B50" s="107">
+        <v>40.0</v>
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="69"/>
@@ -24001,11 +24066,11 @@
     <row r="51" ht="37.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="61">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="C51" s="94"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="86">
@@ -24018,12 +24083,12 @@
     </row>
     <row r="52" ht="37.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="61">
-        <v>43.0</v>
+      <c r="B52" s="107">
+        <v>42.0</v>
       </c>
       <c r="C52" s="94"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="86">
@@ -24037,11 +24102,11 @@
     <row r="53" ht="37.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="61">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="C53" s="94"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="86">
@@ -24055,11 +24120,11 @@
     <row r="54" ht="37.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="61">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="C54" s="94"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="86">
@@ -24073,7 +24138,7 @@
     <row r="55" ht="37.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="61">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="C55" s="94"/>
       <c r="D55" s="69"/>
@@ -24091,11 +24156,11 @@
     <row r="56" ht="37.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="61">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="86">
@@ -24109,11 +24174,11 @@
     <row r="57" ht="37.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="61">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="86">
@@ -24127,11 +24192,11 @@
     <row r="58" ht="37.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="61">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="86">
@@ -24140,16 +24205,16 @@
       <c r="I58" s="86">
         <v>0.0</v>
       </c>
-      <c r="J58" s="109"/>
+      <c r="J58" s="85"/>
     </row>
     <row r="59" ht="37.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="61">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="C59" s="94"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="86">
@@ -24158,229 +24223,264 @@
       <c r="I59" s="86">
         <v>0.0</v>
       </c>
-      <c r="J59" s="109"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="J59" s="85"/>
+    </row>
+    <row r="60" ht="37.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="96">
-        <f t="shared" ref="H60:I60" si="2">SUM(H11:H59)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="B60" s="61">
+        <v>46.0</v>
+      </c>
+      <c r="C60" s="94"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="85"/>
+    </row>
+    <row r="61" ht="37.5" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32">
-        <f>COUNTIFS(D11:D59, "&lt;&gt;"&amp;"")</f>
-        <v>7</v>
-      </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32">
-        <f>COUNTIFS(G11:G59, "Concluído",D11:D59, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="B61" s="61">
+        <v>47.0</v>
+      </c>
+      <c r="C61" s="94"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="85"/>
+    </row>
+    <row r="62" ht="37.5" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="B62" s="61">
+        <v>48.0</v>
+      </c>
+      <c r="C62" s="94"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="85"/>
+    </row>
+    <row r="63" ht="37.5" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="B63" s="61">
+        <v>49.0</v>
+      </c>
+      <c r="C63" s="94"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="110"/>
+    </row>
+    <row r="64" ht="37.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="99" t="str">
-        <f>'Dados do Projeto'!B10</f>
-        <v>Guilherme Augusto Costa Barros</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B10,H$11:H$59)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B10,I$11:I$59)</f>
-        <v>0</v>
-      </c>
+      <c r="B64" s="61">
+        <v>50.0</v>
+      </c>
+      <c r="C64" s="94"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="110"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="99" t="str">
-        <f>'Dados do Projeto'!B11</f>
-        <v>Lucas Perlatto Lotti Garcia</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="100">
-        <f>SUMIF(F$11:F$59,'Dados do Projeto'!B11,H$11:H$59)</f>
+      <c r="B65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="96">
+        <f t="shared" ref="H65:I65" si="3">SUM(H11:H64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B11,I$11:I$59)</f>
+      <c r="I65" s="96">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="99" t="str">
-        <f>'Dados do Projeto'!B12</f>
-        <v>Marcus Viniccius Souza de Freitas</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="100">
-        <f>SUMIF(F$11:F$59,'Dados do Projeto'!B12,H$11:H$59)</f>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32">
+        <f>COUNTIFS(D11:D64, "&lt;&gt;"&amp;"")</f>
+        <v>12</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32">
+        <f>COUNTIFS(G11:G64, "Concluído",D11:D64, "&lt;&gt;"&amp;"")</f>
         <v>0</v>
       </c>
-      <c r="I66" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B12,I$11:I$59)</f>
-        <v>0</v>
-      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="99" t="str">
-        <f>'Dados do Projeto'!B13</f>
-        <v>Pablo Guilherme Amancio Pereira Magela Benevenuto</v>
+      <c r="B67" s="77" t="s">
+        <v>108</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="100">
-        <f>SUMIF(F$11:F$59,'Dados do Projeto'!B13,H$11:H$59)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B13,I$11:I$59)</f>
-        <v>0</v>
-      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="99" t="str">
-        <f>'Dados do Projeto'!B14</f>
-        <v>Raquel Inez de Almeida Calazans</v>
+      <c r="B68" s="98" t="s">
+        <v>109</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="100">
-        <f>SUMIF(F$11:F$59,'Dados do Projeto'!B14,H$11:H$59)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="100">
-        <f>SUMIF($F$11:$F$59,'Dados do Projeto'!$B14,I$11:I$59)</f>
-        <v>0</v>
+      <c r="H68" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="79" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B69" s="99" t="str">
+        <f>'Dados do Projeto'!B10</f>
+        <v>Guilherme Augusto Costa Barros</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B10,H$11:H$64)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B10,I$11:I$64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="B70" s="99" t="str">
+        <f>'Dados do Projeto'!B11</f>
+        <v>Lucas Perlatto Lotti Garcia</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="100">
+        <f>SUMIF(F$11:F$64,'Dados do Projeto'!B11,H$11:H$64)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B11,I$11:I$64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="B71" s="99" t="str">
+        <f>'Dados do Projeto'!B12</f>
+        <v>Marcus Viniccius Souza de Freitas</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="100">
+        <f>SUMIF(F$11:F$64,'Dados do Projeto'!B12,H$11:H$64)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B12,I$11:I$64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="B72" s="99" t="str">
+        <f>'Dados do Projeto'!B13</f>
+        <v>Pablo Guilherme Amancio Pereira Magela Benevenuto</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="100">
+        <f>SUMIF(F$11:F$64,'Dados do Projeto'!B13,H$11:H$64)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B13,I$11:I$64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="B73" s="99" t="str">
+        <f>'Dados do Projeto'!B14</f>
+        <v>Raquel Inez de Almeida Calazans</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="100">
+        <f>SUMIF(F$11:F$64,'Dados do Projeto'!B14,H$11:H$64)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="100">
+        <f>SUMIF($F$11:$F$64,'Dados do Projeto'!$B14,I$11:I$64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
@@ -24671,10 +24771,10 @@
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -24682,10 +24782,10 @@
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -24693,10 +24793,10 @@
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -24704,10 +24804,10 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -24715,8 +24815,8 @@
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -24726,19 +24826,69 @@
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="20"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
@@ -25628,16 +25778,21 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$B$10:$J$59"/>
+  <autoFilter ref="$B$10:$J$64"/>
   <mergeCells count="14">
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B67:I67"/>
     <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
@@ -25646,255 +25801,305 @@
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B9:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F17">
+  <conditionalFormatting sqref="F17:F19">
     <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>NOT(ISERROR(SEARCH(($B$74),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>NOT(ISERROR(SEARCH(($B$80),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>NOT(ISERROR(SEARCH(($B$81),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>NOT(ISERROR(SEARCH(($B$82),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>NOT(ISERROR(SEARCH(($B$80),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>NOT(ISERROR(SEARCH(($B$81),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$82),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F22">
+    <cfRule type="containsBlanks" dxfId="5" priority="21">
+      <formula>LEN(TRIM(F11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="4" priority="22">
+      <formula>NOT(ISERROR(SEARCH(($B$73),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="2" priority="24">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="1" priority="25">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="containsBlanks" dxfId="5" priority="26">
+      <formula>LEN(TRIM(F14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="4" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$73),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="2" priority="29">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="4" priority="37">
       <formula>NOT(ISERROR(SEARCH(($B$73),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="containsBlanks" dxfId="5" priority="38">
+      <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
+  <conditionalFormatting sqref="C11:C64">
+    <cfRule type="expression" dxfId="6" priority="39">
+      <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="containsBlanks" dxfId="5" priority="40">
+      <formula>LEN(TRIM(F14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="4" priority="41">
+      <formula>NOT(ISERROR(SEARCH(($B$73),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="3" priority="42">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="2" priority="43">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="containsBlanks" dxfId="5" priority="45">
+      <formula>LEN(TRIM(F14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="4" priority="46">
+      <formula>NOT(ISERROR(SEARCH(($B$73),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="1" priority="49">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="0" priority="50">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="0" priority="52">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>NOT(ISERROR(SEARCH(($B$70),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="2" priority="54">
+      <formula>NOT(ISERROR(SEARCH(($B$71),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="3" priority="55">
+      <formula>NOT(ISERROR(SEARCH(($B$72),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="expression" dxfId="4" priority="56">
       <formula>NOT(ISERROR(SEARCH(($B$73),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="containsBlanks" dxfId="5" priority="11">
+  <conditionalFormatting sqref="F11:F64">
+    <cfRule type="containsBlanks" dxfId="5" priority="57">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsBlanks" dxfId="5" priority="16">
-      <formula>LEN(TRIM(F13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="4" priority="17">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="1" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="containsBlanks" dxfId="5" priority="28">
-      <formula>LEN(TRIM(F11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C59">
-    <cfRule type="expression" dxfId="6" priority="29">
-      <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsBlanks" dxfId="5" priority="30">
-      <formula>LEN(TRIM(F13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="4" priority="31">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="1" priority="34">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsBlanks" dxfId="5" priority="35">
-      <formula>LEN(TRIM(F13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="4" priority="36">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="3" priority="37">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="38">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="1" priority="39">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="40">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="41">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="0" priority="42">
-      <formula>NOT(ISERROR(SEARCH(($B$64),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="2" priority="44">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="3" priority="45">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="expression" dxfId="4" priority="46">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F59">
-    <cfRule type="containsBlanks" dxfId="5" priority="47">
-      <formula>LEN(TRIM(F11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C59">
-    <cfRule type="expression" dxfId="6" priority="48">
+  <conditionalFormatting sqref="C11:C64">
+    <cfRule type="expression" dxfId="6" priority="58">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G11:G17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G11:G22">
       <formula1>'Dados do Projeto'!$M$100:$M$103</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C59">
-      <formula1>$K$1:$K$20</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C23:C64">
+      <formula1>$K$1:$K$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C17">
-      <formula1>$K$1:$K$27</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C22">
+      <formula1>$K$1:$K$32</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -25971,7 +26176,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -25989,7 +26194,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -26074,7 +26279,7 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="77" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -26132,7 +26337,7 @@
       </c>
       <c r="C11" s="94"/>
       <c r="D11" s="82" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>87</v>
@@ -26221,7 +26426,7 @@
       <c r="I14" s="86">
         <v>0.0</v>
       </c>
-      <c r="J14" s="107"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="73">
         <f t="shared" si="1"/>
         <v>45251</v>
@@ -26243,7 +26448,7 @@
       <c r="I15" s="86">
         <v>0.0</v>
       </c>
-      <c r="J15" s="107"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="73">
         <f t="shared" si="1"/>
         <v>45252</v>
@@ -26265,7 +26470,7 @@
       <c r="I16" s="86">
         <v>0.0</v>
       </c>
-      <c r="J16" s="107"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="73">
         <f t="shared" si="1"/>
         <v>45253</v>
@@ -26287,7 +26492,7 @@
       <c r="I17" s="86">
         <v>0.0</v>
       </c>
-      <c r="J17" s="107"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="73">
         <f t="shared" si="1"/>
         <v>45254</v>
@@ -26309,7 +26514,7 @@
       <c r="I18" s="86">
         <v>0.0</v>
       </c>
-      <c r="J18" s="107"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="73">
         <f t="shared" si="1"/>
         <v>45255</v>
@@ -26331,7 +26536,7 @@
       <c r="I19" s="86">
         <v>0.0</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="108"/>
       <c r="K19" s="73">
         <f t="shared" si="1"/>
         <v>45256</v>
@@ -26353,7 +26558,7 @@
       <c r="I20" s="86">
         <v>0.0</v>
       </c>
-      <c r="J20" s="107"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="73">
         <f t="shared" si="1"/>
         <v>45257</v>
@@ -26375,7 +26580,7 @@
       <c r="I21" s="86">
         <v>0.0</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="73">
         <f t="shared" si="1"/>
         <v>45258</v>
@@ -26397,7 +26602,7 @@
       <c r="I22" s="86">
         <v>0.0</v>
       </c>
-      <c r="J22" s="107"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="73"/>
     </row>
     <row r="23" ht="37.5" customHeight="1">
@@ -26416,7 +26621,7 @@
       <c r="I23" s="86">
         <v>0.0</v>
       </c>
-      <c r="J23" s="107"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="73"/>
     </row>
     <row r="24" ht="37.5" customHeight="1">
@@ -26435,7 +26640,7 @@
       <c r="I24" s="86">
         <v>0.0</v>
       </c>
-      <c r="J24" s="107"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="73"/>
     </row>
     <row r="25" ht="37.5" customHeight="1">
@@ -26454,7 +26659,7 @@
       <c r="I25" s="86">
         <v>0.0</v>
       </c>
-      <c r="J25" s="107"/>
+      <c r="J25" s="108"/>
       <c r="K25" s="73"/>
     </row>
     <row r="26" ht="37.5" customHeight="1">
@@ -26473,7 +26678,7 @@
       <c r="I26" s="86">
         <v>0.0</v>
       </c>
-      <c r="J26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="K26" s="73"/>
     </row>
     <row r="27" ht="37.5" customHeight="1">
@@ -26492,7 +26697,7 @@
       <c r="I27" s="86">
         <v>0.0</v>
       </c>
-      <c r="J27" s="107"/>
+      <c r="J27" s="108"/>
       <c r="K27" s="73"/>
     </row>
     <row r="28" ht="37.5" customHeight="1">
@@ -26511,7 +26716,7 @@
       <c r="I28" s="86">
         <v>0.0</v>
       </c>
-      <c r="J28" s="107"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="73"/>
     </row>
     <row r="29" ht="37.5" customHeight="1">
@@ -26530,7 +26735,7 @@
       <c r="I29" s="86">
         <v>0.0</v>
       </c>
-      <c r="J29" s="107"/>
+      <c r="J29" s="108"/>
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="1"/>
@@ -26548,7 +26753,7 @@
       <c r="I30" s="86">
         <v>0.0</v>
       </c>
-      <c r="J30" s="107"/>
+      <c r="J30" s="108"/>
     </row>
     <row r="31" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
@@ -26566,7 +26771,7 @@
       <c r="I31" s="86">
         <v>0.0</v>
       </c>
-      <c r="J31" s="107"/>
+      <c r="J31" s="108"/>
     </row>
     <row r="32" ht="37.5" customHeight="1">
       <c r="A32" s="1"/>
@@ -26584,7 +26789,7 @@
       <c r="I32" s="86">
         <v>0.0</v>
       </c>
-      <c r="J32" s="107"/>
+      <c r="J32" s="108"/>
     </row>
     <row r="33" ht="37.5" customHeight="1">
       <c r="A33" s="1"/>
@@ -26602,7 +26807,7 @@
       <c r="I33" s="86">
         <v>0.0</v>
       </c>
-      <c r="J33" s="107"/>
+      <c r="J33" s="108"/>
     </row>
     <row r="34" ht="37.5" customHeight="1">
       <c r="A34" s="1"/>
@@ -26934,8 +27139,8 @@
         <v>42.0</v>
       </c>
       <c r="C52" s="94"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="86">
@@ -26952,8 +27157,8 @@
         <v>43.0</v>
       </c>
       <c r="C53" s="94"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="86">
@@ -26970,8 +27175,8 @@
         <v>44.0</v>
       </c>
       <c r="C54" s="94"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="86">
@@ -26988,8 +27193,8 @@
         <v>45.0</v>
       </c>
       <c r="C55" s="94"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="86">
@@ -27070,7 +27275,7 @@
       <c r="I59" s="86">
         <v>0.0</v>
       </c>
-      <c r="J59" s="109"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" ht="37.5" customHeight="1">
       <c r="A60" s="1"/>
@@ -27088,7 +27293,7 @@
       <c r="I60" s="86">
         <v>0.0</v>
       </c>
-      <c r="J60" s="109"/>
+      <c r="J60" s="110"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>

--- a/Documentacao/Sprints TIS III-noite-2sem2023.xlsx
+++ b/Documentacao/Sprints TIS III-noite-2sem2023.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="175">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -1044,7 +1044,22 @@
     <t>SPRINT #6</t>
   </si>
   <si>
-    <t>permissoes de usuários</t>
+    <t>[BACK] Ajustar Permissões de Usuários</t>
+  </si>
+  <si>
+    <t>Ajustar Caso de Uso Descritivo</t>
+  </si>
+  <si>
+    <t>Ajustar Interface de Usuário da tela Gerar Relatórios</t>
+  </si>
+  <si>
+    <t>[FRONT] Ajustar de layout das telas</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Ajustar Diagrama de Caso de Uso</t>
   </si>
 </sst>
 </file>
@@ -1913,11 +1928,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="210772404"/>
-        <c:axId val="878495545"/>
+        <c:axId val="1988402100"/>
+        <c:axId val="543214124"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="210772404"/>
+        <c:axId val="1988402100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,10 +1984,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878495545"/>
+        <c:crossAx val="543214124"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="878495545"/>
+        <c:axId val="543214124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210772404"/>
+        <c:crossAx val="1988402100"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -23217,7 +23232,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H11" s="86">
         <v>0.0</v>
@@ -23259,7 +23274,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -23284,7 +23299,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
@@ -23309,7 +23324,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H14" s="86">
         <v>0.0</v>
@@ -23341,7 +23356,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H15" s="86">
         <v>0.0</v>
@@ -23373,7 +23388,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H16" s="86">
         <v>0.0</v>
@@ -23405,7 +23420,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
@@ -23430,7 +23445,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
@@ -23455,7 +23470,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="86"/>
@@ -23480,7 +23495,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H20" s="86">
         <v>0.0</v>
@@ -23509,7 +23524,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H21" s="86">
         <v>0.0</v>
@@ -23538,7 +23553,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H22" s="86">
         <v>0.0</v>
@@ -24346,7 +24361,7 @@
       <c r="F66" s="32"/>
       <c r="G66" s="32">
         <f>COUNTIFS(G11:G64, "Concluído",D11:D64, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -26128,7 +26143,7 @@
     <col customWidth="1" min="2" max="2" width="5.5"/>
     <col customWidth="1" min="3" max="3" width="14.5"/>
     <col customWidth="1" min="4" max="5" width="29.63"/>
-    <col customWidth="1" min="6" max="6" width="21.5"/>
+    <col customWidth="1" min="6" max="6" width="44.38"/>
     <col customWidth="1" min="7" max="7" width="16.5"/>
     <col customWidth="1" min="8" max="8" width="21.5"/>
     <col customWidth="1" min="9" max="9" width="17.88"/>
@@ -26335,15 +26350,21 @@
       <c r="B11" s="61">
         <v>1.0</v>
       </c>
-      <c r="C11" s="94"/>
+      <c r="C11" s="81">
+        <v>45252.0</v>
+      </c>
       <c r="D11" s="82" t="s">
         <v>169</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="93"/>
+      <c r="F11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="86">
         <v>0.0</v>
       </c>
@@ -26371,11 +26392,21 @@
       <c r="B12" s="61">
         <v>2.0</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="93"/>
+      <c r="C12" s="81">
+        <v>45252.0</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="86">
         <v>0.0</v>
       </c>
@@ -26393,11 +26424,21 @@
       <c r="B13" s="61">
         <v>3.0</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="93"/>
+      <c r="C13" s="81">
+        <v>45252.0</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="86">
         <v>0.0</v>
       </c>
@@ -26415,11 +26456,21 @@
       <c r="B14" s="61">
         <v>4.0</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="93"/>
+      <c r="C14" s="81">
+        <v>45252.0</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="86">
         <v>0.0</v>
       </c>
@@ -26437,11 +26488,21 @@
       <c r="B15" s="61">
         <v>5.0</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="93"/>
+      <c r="C15" s="81">
+        <v>45252.0</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="86">
         <v>0.0</v>
       </c>
@@ -27320,7 +27381,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="32">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
